--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H2">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.85769010700369</v>
+        <v>8.502995666666665</v>
       </c>
       <c r="N2">
-        <v>4.85769010700369</v>
+        <v>25.508987</v>
       </c>
       <c r="O2">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301167</v>
       </c>
       <c r="P2">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301168</v>
       </c>
       <c r="Q2">
-        <v>336.5097635213194</v>
+        <v>618.9612476759653</v>
       </c>
       <c r="R2">
-        <v>336.5097635213194</v>
+        <v>5570.651229083687</v>
       </c>
       <c r="S2">
-        <v>0.1758198624599885</v>
+        <v>0.2065233074562354</v>
       </c>
       <c r="T2">
-        <v>0.1758198624599885</v>
+        <v>0.2065233074562355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H3">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02291398038544</v>
+        <v>1.074135666666667</v>
       </c>
       <c r="N3">
-        <v>1.02291398038544</v>
+        <v>3.222407</v>
       </c>
       <c r="O3">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107818</v>
       </c>
       <c r="P3">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107819</v>
       </c>
       <c r="Q3">
-        <v>70.86095120515567</v>
+        <v>78.1898966524921</v>
       </c>
       <c r="R3">
-        <v>70.86095120515567</v>
+        <v>703.7090698724289</v>
       </c>
       <c r="S3">
-        <v>0.03702348057988845</v>
+        <v>0.02608892903548563</v>
       </c>
       <c r="T3">
-        <v>0.03702348057988845</v>
+        <v>0.02608892903548563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H4">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91638957354633</v>
+        <v>2.069388333333333</v>
       </c>
       <c r="N4">
-        <v>1.91638957354633</v>
+        <v>6.208165</v>
       </c>
       <c r="O4">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="P4">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="Q4">
-        <v>132.7552371607693</v>
+        <v>150.6376381852506</v>
       </c>
       <c r="R4">
-        <v>132.7552371607693</v>
+        <v>1355.738743667255</v>
       </c>
       <c r="S4">
-        <v>0.06936205147275273</v>
+        <v>0.05026192412242948</v>
       </c>
       <c r="T4">
-        <v>0.06936205147275273</v>
+        <v>0.0502619241224295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H5">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.85769010700369</v>
+        <v>8.502995666666665</v>
       </c>
       <c r="N5">
-        <v>4.85769010700369</v>
+        <v>25.508987</v>
       </c>
       <c r="O5">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301167</v>
       </c>
       <c r="P5">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301168</v>
       </c>
       <c r="Q5">
-        <v>557.804871522365</v>
+        <v>996.2967221836331</v>
       </c>
       <c r="R5">
-        <v>557.804871522365</v>
+        <v>8966.670499652699</v>
       </c>
       <c r="S5">
-        <v>0.2914422891161087</v>
+        <v>0.3324254871298298</v>
       </c>
       <c r="T5">
-        <v>0.2914422891161087</v>
+        <v>0.3324254871298299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H6">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02291398038544</v>
+        <v>1.074135666666667</v>
       </c>
       <c r="N6">
-        <v>1.02291398038544</v>
+        <v>3.222407</v>
       </c>
       <c r="O6">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107818</v>
       </c>
       <c r="P6">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107819</v>
       </c>
       <c r="Q6">
-        <v>117.460436717582</v>
+        <v>125.8565670068198</v>
       </c>
       <c r="R6">
-        <v>117.460436717582</v>
+        <v>1132.709103061378</v>
       </c>
       <c r="S6">
-        <v>0.06137081317364827</v>
+        <v>0.04199344398527365</v>
       </c>
       <c r="T6">
-        <v>0.06137081317364827</v>
+        <v>0.04199344398527367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H7">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91638957354633</v>
+        <v>2.069388333333333</v>
       </c>
       <c r="N7">
-        <v>1.91638957354633</v>
+        <v>6.208165</v>
       </c>
       <c r="O7">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="P7">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="Q7">
-        <v>220.0575615800595</v>
+        <v>242.4704062248789</v>
       </c>
       <c r="R7">
-        <v>220.0575615800595</v>
+        <v>2182.23365602391</v>
       </c>
       <c r="S7">
-        <v>0.1149758325149912</v>
+        <v>0.08090294900018415</v>
       </c>
       <c r="T7">
-        <v>0.1149758325149912</v>
+        <v>0.08090294900018417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H8">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.85769010700369</v>
+        <v>8.502995666666665</v>
       </c>
       <c r="N8">
-        <v>4.85769010700369</v>
+        <v>25.508987</v>
       </c>
       <c r="O8">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301167</v>
       </c>
       <c r="P8">
-        <v>0.6230209127066134</v>
+        <v>0.7300889802301168</v>
       </c>
       <c r="Q8">
-        <v>298.11389419288</v>
+        <v>572.8572200613654</v>
       </c>
       <c r="R8">
-        <v>298.11389419288</v>
+        <v>5155.714980552289</v>
       </c>
       <c r="S8">
-        <v>0.1557587611305163</v>
+        <v>0.1911401856440514</v>
       </c>
       <c r="T8">
-        <v>0.1557587611305163</v>
+        <v>0.1911401856440515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H9">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02291398038544</v>
+        <v>1.074135666666667</v>
       </c>
       <c r="N9">
-        <v>1.02291398038544</v>
+        <v>3.222407</v>
       </c>
       <c r="O9">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107818</v>
       </c>
       <c r="P9">
-        <v>0.1311933836127697</v>
+        <v>0.09222803871107819</v>
       </c>
       <c r="Q9">
-        <v>62.77569449672824</v>
+        <v>72.36583388929888</v>
       </c>
       <c r="R9">
-        <v>62.77569449672824</v>
+        <v>651.2925050036901</v>
       </c>
       <c r="S9">
-        <v>0.03279908985923304</v>
+        <v>0.0241456656903189</v>
       </c>
       <c r="T9">
-        <v>0.03279908985923304</v>
+        <v>0.02414566569031891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H10">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.91638957354633</v>
+        <v>2.069388333333333</v>
       </c>
       <c r="N10">
-        <v>1.91638957354633</v>
+        <v>6.208165</v>
       </c>
       <c r="O10">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="P10">
-        <v>0.2457857036806167</v>
+        <v>0.177682981058805</v>
       </c>
       <c r="Q10">
-        <v>117.6078230550031</v>
+        <v>139.4172235683944</v>
       </c>
       <c r="R10">
-        <v>117.6078230550031</v>
+        <v>1254.75501211555</v>
       </c>
       <c r="S10">
-        <v>0.06144781969287283</v>
+        <v>0.04651810793619138</v>
       </c>
       <c r="T10">
-        <v>0.06144781969287283</v>
+        <v>0.04651810793619139</v>
       </c>
     </row>
   </sheetData>
